--- a/CodeBankLog.xlsx
+++ b/CodeBankLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nivinsjohn/Documents/Study/50daysofCodeJS/50-days-of-JavaScript---Codedamn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E976B79-9B46-7A40-A080-E0745F9F8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F87A95-2EF3-7A4A-A134-B24D4714DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42480" yWindow="3240" windowWidth="28040" windowHeight="16940" xr2:uid="{F5B73749-92A6-A848-A0D3-B8008E85980E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>new Date(); Math.abs(date2-date1); Math.round(diff / DAY_IN_MILLISECONDS);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty object JS </t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Object.keys(obj).length === 0?true:false</t>
+  </si>
+  <si>
+    <t>Remove array element based on object property</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>array.filter(function (item) { return item.field !== filterField });</t>
   </si>
 </sst>
 </file>
@@ -650,16 +668,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0084A0FE-D733-4F4B-A55A-61D2AE6AC933}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,6 +780,28 @@
         <v>22</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeBankLog.xlsx
+++ b/CodeBankLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nivinsjohn/Documents/Study/50daysofCodeJS/50-days-of-JavaScript---Codedamn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getni\Documents\Personal\Nivin\Study\Competive Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F87A95-2EF3-7A4A-A134-B24D4714DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3A20A-F913-45AC-AB8A-713D558491DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42480" yWindow="3240" windowWidth="28040" windowHeight="16940" xr2:uid="{F5B73749-92A6-A848-A0D3-B8008E85980E}"/>
+    <workbookView xWindow="3405" yWindow="3405" windowWidth="21600" windowHeight="11865" xr2:uid="{F5B73749-92A6-A848-A0D3-B8008E85980E}"/>
   </bookViews>
   <sheets>
     <sheet name="Javascript" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -277,13 +277,22 @@
   </si>
   <si>
     <t>array.filter(function (item) { return item.field !== filterField });</t>
+  </si>
+  <si>
+    <t>Fibonacci Series</t>
+  </si>
+  <si>
+    <t>f(n-1)+f(n-2)</t>
+  </si>
+  <si>
+    <t>Spell Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,20 +677,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0084A0FE-D733-4F4B-A55A-61D2AE6AC933}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -703,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -714,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -725,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -736,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -747,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -758,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -769,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -780,7 +789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -791,7 +800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -800,6 +809,25 @@
       </c>
       <c r="C11" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
